--- a/loptique/static/Balance.xlsx
+++ b/loptique/static/Balance.xlsx
@@ -617,15 +617,35 @@
       <c r="D5" s="10" t="n"/>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="7">
-      <c r="A6" s="10" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>9/2/2021 15:09</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Seña de Receta de Ejemplo 1 (12/2/2021)</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>50</v>
+      </c>
       <c r="D6" s="10" t="n"/>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>10/2/2021 12:08</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>Seña de Receta de Paolo Cetti (27/1/2021)</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>50</v>
+      </c>
       <c r="D7" s="10" t="n"/>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="7">
